--- a/public/template/ImageFrame.xlsx
+++ b/public/template/ImageFrame.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\模板\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\306-frontend\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D5EE31-2256-4960-8A25-AAAB1CE2B87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D50B7C-2C43-4356-9361-7DA9826555B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ImageFrame" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -376,7 +376,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
